--- a/test03.xlsx
+++ b/test03.xlsx
@@ -374,7 +374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4859,105 +4861,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+A1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B2+B1</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>C2+C1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+A2</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3+B2</f>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>C3+C2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A16" si="0">A4+A3</f>
+        <f t="shared" ref="A5:B16" si="0">A4+A3</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5" si="1">C4+C3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" si="2">C5+C4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7" si="3">C6+C5</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="4">C7+C6</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9" si="5">C8+C7</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10" si="6">C9+C8</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11" si="7">C10+C9</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12" si="8">C11+C10</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="9">C12+C11</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14" si="10">C13+C12</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>987</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>987</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15" si="11">C14+C13</f>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
+        <v>1597</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1597</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16" si="12">C15+C14</f>
         <v>1597</v>
       </c>
     </row>
